--- a/ClientReport.xlsx
+++ b/ClientReport.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <sheets>
-    <sheet name="PatternSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="MKTID" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E5"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
@@ -382,25 +382,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>A</v>
-      </c>
-      <c r="B1">
-        <v>2176</v>
+        <v>I</v>
+      </c>
+      <c r="B1" t="str">
+        <v>D</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>AA</v>
-      </c>
-      <c r="B2">
-        <v>2176</v>
+        <v>C</v>
+      </c>
+      <c r="B2" t="str">
+        <v>O</v>
+      </c>
+      <c r="C2" t="str">
+        <v>U</v>
+      </c>
+      <c r="D2" t="str">
+        <v>N</v>
+      </c>
+      <c r="E2" t="str">
+        <v>T</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
+        <v>A</v>
+      </c>
+      <c r="B3">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>AA</v>
+      </c>
+      <c r="B4">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
         <v>B</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <v>2176</v>
       </c>
     </row>

--- a/ClientReport.xlsx
+++ b/ClientReport.xlsx
@@ -4,6 +4,7 @@
   <workbookPr date1904="false"/>
   <sheets>
     <sheet name="MKTID" sheetId="1" r:id="rId1"/>
+    <sheet name="STATE COUNT" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -372,7 +373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:B3"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
@@ -382,51 +383,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>I</v>
-      </c>
-      <c r="B1" t="str">
-        <v>D</v>
+        <v>A</v>
+      </c>
+      <c r="B1">
+        <v>2176</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>C</v>
-      </c>
-      <c r="B2" t="str">
-        <v>O</v>
-      </c>
-      <c r="C2" t="str">
-        <v>U</v>
-      </c>
-      <c r="D2" t="str">
-        <v>N</v>
-      </c>
-      <c r="E2" t="str">
-        <v>T</v>
+        <v>AA</v>
+      </c>
+      <c r="B2">
+        <v>2176</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="B3">
         <v>2176</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>AA</v>
-      </c>
-      <c r="B4">
-        <v>2176</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>B</v>
-      </c>
-      <c r="B5">
-        <v>2176</v>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v xml:space="preserve">US          </v>
+      </c>
+      <c r="B1">
+        <v>6528</v>
       </c>
     </row>
   </sheetData>
